--- a/biology/Zoologie/Jours_de_la_Nuit/Jours_de_la_Nuit.xlsx
+++ b/biology/Zoologie/Jours_de_la_Nuit/Jours_de_la_Nuit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Jours de la Nuit, ou les Nuits sans lumière jusqu'en 2019, sont une opération environnementale organisée chaque année en avril à La Réunion. Elles consistent à réduire l'éclairage public partout dans l'île de l'océan Indien pour y diminuer la pollution lumineuse et éviter l'échouage des pétrels de Barau, oiseaux marins endémiques qui prennent alors leur envol[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Jours de la Nuit, ou les Nuits sans lumière jusqu'en 2019, sont une opération environnementale organisée chaque année en avril à La Réunion. Elles consistent à réduire l'éclairage public partout dans l'île de l'océan Indien pour y diminuer la pollution lumineuse et éviter l'échouage des pétrels de Barau, oiseaux marins endémiques qui prennent alors leur envol.
 Lancées en 2009, les Nuits sans lumière, qui sont pilotées par le parc national de La Réunion conjointement avec la Société d'études ornithologiques de La Réunion et le Conseil de la culture, de l'éducation et de l'environnement, couvrent une période allongée de dix nuits à compter de 2014.
 </t>
         </is>
